--- a/SAT_Words.xlsx
+++ b/SAT_Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3320754-079C-450B-BD74-A7CD1738D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416282F-34CB-4E69-8B0A-C6FEBF9C9B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="3160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="4179">
   <si>
     <t>Word</t>
   </si>
@@ -9500,6 +9500,3063 @@
   </si>
   <si>
     <t>She has a penchant for spicy food.</t>
+  </si>
+  <si>
+    <t>penitent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> regretful</t>
+  </si>
+  <si>
+    <t>She felt penitent after realizing her mistake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjective</t>
+  </si>
+  <si>
+    <t>penultimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> next to last</t>
+  </si>
+  <si>
+    <t>second-to-last</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>The penultimate chapter of the book was the most exciting.</t>
+  </si>
+  <si>
+    <t>penurious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stingy</t>
+  </si>
+  <si>
+    <t>miserly</t>
+  </si>
+  <si>
+    <t>His penurious habits made it difficult for him to enjoy life.</t>
+  </si>
+  <si>
+    <t>perfidious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disloyal</t>
+  </si>
+  <si>
+    <t>The perfidious ally betrayed the king at the first opportunity.</t>
+  </si>
+  <si>
+    <t>perfunctory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> showing little interest or enthusiasm</t>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+  </si>
+  <si>
+    <t>His perfunctory apology did little to mend the relationship.</t>
+  </si>
+  <si>
+    <t>permeate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to spread throughout</t>
+  </si>
+  <si>
+    <t>pervade</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>The smell of fresh bread permeated the entire house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verb</t>
+  </si>
+  <si>
+    <t>pernicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extremely destructive or harmful</t>
+  </si>
+  <si>
+    <t>The pernicious effects of smoking are well-documented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to confuse</t>
+  </si>
+  <si>
+    <t>baffle</t>
+  </si>
+  <si>
+    <t>The complex instructions perplexed the new employees.</t>
+  </si>
+  <si>
+    <t>perspicacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shrewdness</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>dullness</t>
+  </si>
+  <si>
+    <t>Her perspicacity allowed her to solve the puzzle quickly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noun</t>
+  </si>
+  <si>
+    <t>pert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flippant, bold</t>
+  </si>
+  <si>
+    <t>cheeky</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>His pert remarks often got him into trouble.</t>
+  </si>
+  <si>
+    <t>pertinacious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stubbornly persistent</t>
+  </si>
+  <si>
+    <t>tenacious</t>
+  </si>
+  <si>
+    <t>Her pertinacious attitude helped her overcome many obstacles.</t>
+  </si>
+  <si>
+    <t>perusal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a careful examination</t>
+  </si>
+  <si>
+    <t>scrutiny</t>
+  </si>
+  <si>
+    <t>glance</t>
+  </si>
+  <si>
+    <t>After a quick perusal of the document, he signed it.</t>
+  </si>
+  <si>
+    <t>pervasive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having the tendency to spread throughout</t>
+  </si>
+  <si>
+    <t>widespread</t>
+  </si>
+  <si>
+    <t>The pervasive influence of social media is undeniable.</t>
+  </si>
+  <si>
+    <t>petulance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rudeness, irritability</t>
+  </si>
+  <si>
+    <t>irritability</t>
+  </si>
+  <si>
+    <t>His petulance made it difficult to have a calm discussion.</t>
+  </si>
+  <si>
+    <t>philanthropic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> charitable, giving</t>
+  </si>
+  <si>
+    <t>The philanthropic billionaire donated millions to charity.</t>
+  </si>
+  <si>
+    <t>phlegmatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uninterested, unresponsive</t>
+  </si>
+  <si>
+    <t>His phlegmatic demeanor made it hard to tell if he cared.</t>
+  </si>
+  <si>
+    <t>pillage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to seize or plunder (war)</t>
+  </si>
+  <si>
+    <t>loot</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>The invaders pillaged the village, taking everything of value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verb/Noun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the highest point</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Reaching the pinnacle of his career was his greatest achievement.</t>
+  </si>
+  <si>
+    <t>pithy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concisely meaningful</t>
+  </si>
+  <si>
+    <t>Her pithy comments always got straight to the point.</t>
+  </si>
+  <si>
+    <t>pittance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a very small amount (money)</t>
+  </si>
+  <si>
+    <t>trifle</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>He was paid a pittance for his hard work.</t>
+  </si>
+  <si>
+    <t>placate</t>
+  </si>
+  <si>
+    <t>The manager tried to placate the angry customer with a refund.</t>
+  </si>
+  <si>
+    <t>placid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calm, peaceful</t>
+  </si>
+  <si>
+    <t>serene</t>
+  </si>
+  <si>
+    <t>agitated</t>
+  </si>
+  <si>
+    <t>The placid lake reflected the clear blue sky.</t>
+  </si>
+  <si>
+    <t>platitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a cliché</t>
+  </si>
+  <si>
+    <t>cliché</t>
+  </si>
+  <si>
+    <t>His speech was full of platitudes and lacked substance.</t>
+  </si>
+  <si>
+    <t>plaudits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enthusiastic approval, applause</t>
+  </si>
+  <si>
+    <t>The actor received plaudits for his outstanding performance.</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believable, reasonable</t>
+  </si>
+  <si>
+    <t>credible</t>
+  </si>
+  <si>
+    <t>implausible</t>
+  </si>
+  <si>
+    <t>Her explanation was plausible, but I still had doubts.</t>
+  </si>
+  <si>
+    <t>plenitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an abundance</t>
+  </si>
+  <si>
+    <t>The plenitude of food at the feast was overwhelming.</t>
+  </si>
+  <si>
+    <t>plethora</t>
+  </si>
+  <si>
+    <t>excess</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>There was a plethora of options to choose from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flexible</t>
+  </si>
+  <si>
+    <t>The pliable material was easy to shape into any form.</t>
+  </si>
+  <si>
+    <t>poignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deeply affecting, moving</t>
+  </si>
+  <si>
+    <t>touching</t>
+  </si>
+  <si>
+    <t>The poignant movie brought tears to everyone's eyes.</t>
+  </si>
+  <si>
+    <t>polemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an aggressive argument against a specific opinion</t>
+  </si>
+  <si>
+    <t>His polemic against the new policy sparked a heated debate.</t>
+  </si>
+  <si>
+    <t>portent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an omen</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>insignificance</t>
+  </si>
+  <si>
+    <t>The dark clouds were a portent of the coming storm.</t>
+  </si>
+  <si>
+    <t>potable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> suitable for drinking</t>
+  </si>
+  <si>
+    <t>drinkable</t>
+  </si>
+  <si>
+    <t>undrinkable</t>
+  </si>
+  <si>
+    <t>After boiling, the water was finally potable.</t>
+  </si>
+  <si>
+    <t>potentate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> one who has great power</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>The potentate ruled the kingdom with an iron fist.</t>
+  </si>
+  <si>
+    <t>pragmatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> practical</t>
+  </si>
+  <si>
+    <t>realistic</t>
+  </si>
+  <si>
+    <t>idealistic</t>
+  </si>
+  <si>
+    <t>Her pragmatic approach to problem-solving was effective.</t>
+  </si>
+  <si>
+    <t>precipice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the face of a cliff</t>
+  </si>
+  <si>
+    <t>brink</t>
+  </si>
+  <si>
+    <t>Standing on the precipice, he felt a rush of adrenaline.</t>
+  </si>
+  <si>
+    <t>preclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to prevent</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>The new law will preclude any further violations.</t>
+  </si>
+  <si>
+    <t>precocious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> advanced</t>
+  </si>
+  <si>
+    <t>mature</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>The precocious child was reading novels by age five.</t>
+  </si>
+  <si>
+    <t>predilection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a preference or inclination for something</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>She had a predilection for spicy foods.</t>
+  </si>
+  <si>
+    <t>preponderance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> superiority in importance or quantity</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>minority</t>
+  </si>
+  <si>
+    <t>The preponderance of evidence supported his claim.</t>
+  </si>
+  <si>
+    <t>prepossessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> occupying the mind to the exclusion of other thoughts or feelings</t>
+  </si>
+  <si>
+    <t>captivating</t>
+  </si>
+  <si>
+    <t>unappealing</t>
+  </si>
+  <si>
+    <t>Her prepossessing smile made her instantly likable.</t>
+  </si>
+  <si>
+    <t>presage</t>
+  </si>
+  <si>
+    <t>forewarning</t>
+  </si>
+  <si>
+    <t>hindsight</t>
+  </si>
+  <si>
+    <t>The sudden silence was a presage of the impending danger.</t>
+  </si>
+  <si>
+    <t>prescient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to have foreknowledge of events</t>
+  </si>
+  <si>
+    <t>prophetic</t>
+  </si>
+  <si>
+    <t>His prescient predictions about the market were accurate.</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to lay down a rule</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>revoke</t>
+  </si>
+  <si>
+    <t>The doctor will prescribe the necessary medication.</t>
+  </si>
+  <si>
+    <t>presumptuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disrespectfully bold</t>
+  </si>
+  <si>
+    <t>It was presumptuous of him to assume he would be invited.</t>
+  </si>
+  <si>
+    <t>pretense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an appearance or action intended to deceive</t>
+  </si>
+  <si>
+    <t>facade</t>
+  </si>
+  <si>
+    <t>She maintained a pretense of happiness despite her struggles.</t>
+  </si>
+  <si>
+    <t>primeval</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> original, ancient</t>
+  </si>
+  <si>
+    <t>primordial</t>
+  </si>
+  <si>
+    <t>The primeval forest was untouched by human hands.</t>
+  </si>
+  <si>
+    <t>privation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lacking basic necessities</t>
+  </si>
+  <si>
+    <t>deprivation</t>
+  </si>
+  <si>
+    <t>The refugees faced severe privation in the camp.</t>
+  </si>
+  <si>
+    <t>probity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integrity</t>
+  </si>
+  <si>
+    <t>dishonesty</t>
+  </si>
+  <si>
+    <t>His probity made him a trusted leader.</t>
+  </si>
+  <si>
+    <t>proclivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a strong inclination toward something</t>
+  </si>
+  <si>
+    <t>She had a proclivity for taking risks.</t>
+  </si>
+  <si>
+    <t>procure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to obtain</t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>He managed to procure a rare book for his collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indecent</t>
+  </si>
+  <si>
+    <t>vulgar</t>
+  </si>
+  <si>
+    <t>The profane language in the movie shocked some viewers.</t>
+  </si>
+  <si>
+    <t>profligate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extravagant</t>
+  </si>
+  <si>
+    <t>His profligate spending left him in debt.</t>
+  </si>
+  <si>
+    <t>profuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plentiful</t>
+  </si>
+  <si>
+    <t>She offered profuse apologies for her mistake.</t>
+  </si>
+  <si>
+    <t>promulgate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to proclaim</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>The government promulgated new regulations to improve safety.</t>
+  </si>
+  <si>
+    <t>propagate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to spread out</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>The organization aims to propagate awareness about climate change.</t>
+  </si>
+  <si>
+    <t>propensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an preference</t>
+  </si>
+  <si>
+    <t>He has a propensity for getting into trouble.</t>
+  </si>
+  <si>
+    <t>propitious</t>
+  </si>
+  <si>
+    <t>The weather was propitious for an outdoor wedding.</t>
+  </si>
+  <si>
+    <t>propriety</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the quality or state of being proper</t>
+  </si>
+  <si>
+    <t>decorum</t>
+  </si>
+  <si>
+    <t>impropriety</t>
+  </si>
+  <si>
+    <t>She always behaved with the utmost propriety.</t>
+  </si>
+  <si>
+    <t>prosaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lacking liveliness</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>The prosaic routine of daily life can be monotonous.</t>
+  </si>
+  <si>
+    <t>proscribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to condemn</t>
+  </si>
+  <si>
+    <t>prohibit</t>
+  </si>
+  <si>
+    <t>The law proscribes the use of certain chemicals.</t>
+  </si>
+  <si>
+    <t>protean</t>
+  </si>
+  <si>
+    <t>1.  able to change shape 2.  displaying great variety</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>Her protean talent allowed her to excel in many fields.</t>
+  </si>
+  <si>
+    <t>prowess</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extraordinary ability</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>incompetence</t>
+  </si>
+  <si>
+    <t>His prowess in chess earned him many awards.</t>
+  </si>
+  <si>
+    <t>caution</t>
+  </si>
+  <si>
+    <t>recklessness</t>
+  </si>
+  <si>
+    <t>Prudence is essential when making financial decisions.</t>
+  </si>
+  <si>
+    <t>prurient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> possessing an extraordinary interest in sex</t>
+  </si>
+  <si>
+    <t>lascivious</t>
+  </si>
+  <si>
+    <t>The novel was criticized for its prurient content.</t>
+  </si>
+  <si>
+    <t>puerile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> immature</t>
+  </si>
+  <si>
+    <t>childish</t>
+  </si>
+  <si>
+    <t>His puerile behavior was not appropriate for the meeting.</t>
+  </si>
+  <si>
+    <t>pugnacious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quarrelsome</t>
+  </si>
+  <si>
+    <t>combative</t>
+  </si>
+  <si>
+    <t>The pugnacious boxer was known for his aggressive style.</t>
+  </si>
+  <si>
+    <t>pulchritude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> physical beauty</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>ugliness</t>
+  </si>
+  <si>
+    <t>Her pulchritude was admired by everyone who met her.</t>
+  </si>
+  <si>
+    <t>punctilious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eager to follow rules</t>
+  </si>
+  <si>
+    <t>His punctilious attention to detail ensured the project's success.</t>
+  </si>
+  <si>
+    <t>pungent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having a pointed, sharp quality (smells)</t>
+  </si>
+  <si>
+    <t>The pungent smell of garlic filled the kitchen.</t>
+  </si>
+  <si>
+    <t>punitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> involving punishment</t>
+  </si>
+  <si>
+    <t>penal</t>
+  </si>
+  <si>
+    <t>rewarding</t>
+  </si>
+  <si>
+    <t>The punitive measures were meant to deter future violations.</t>
+  </si>
+  <si>
+    <t>putrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rotten, foul</t>
+  </si>
+  <si>
+    <t>decayed</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>The putrid smell coming from the fridge was unbearable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a difficult situation</t>
+  </si>
+  <si>
+    <t>predicament</t>
+  </si>
+  <si>
+    <t>The company found itself in a financial quagmire.</t>
+  </si>
+  <si>
+    <t>quaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> charmingly old-fashioned</t>
+  </si>
+  <si>
+    <t>picturesque</t>
+  </si>
+  <si>
+    <t>The quaint village was a popular tourist destination.</t>
+  </si>
+  <si>
+    <t>quandary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a perplexed, unsolvable state</t>
+  </si>
+  <si>
+    <t>certainty</t>
+  </si>
+  <si>
+    <t>She was in a quandary about which job offer to accept.</t>
+  </si>
+  <si>
+    <t>quell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to control or diffuse a potentially explosive situation</t>
+  </si>
+  <si>
+    <t>incite</t>
+  </si>
+  <si>
+    <t>The police worked to quell the riot before it got out of hand.</t>
+  </si>
+  <si>
+    <t>querulous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> whiny</t>
+  </si>
+  <si>
+    <t>complaining</t>
+  </si>
+  <si>
+    <t>The querulous child kept asking for more candy.</t>
+  </si>
+  <si>
+    <t>quixotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idealistic, impractical</t>
+  </si>
+  <si>
+    <t>unrealistic</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>His quixotic dreams of changing the world were inspiring but unrealistic.</t>
+  </si>
+  <si>
+    <t>quotidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> daily</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>The quotidian tasks of life can sometimes feel monotonous.</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to scold, protest</t>
+  </si>
+  <si>
+    <t>She railed against the injustice of the new policy.</t>
+  </si>
+  <si>
+    <t>rancid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having a terrible taste or smell</t>
+  </si>
+  <si>
+    <t>spoiled</t>
+  </si>
+  <si>
+    <t>The rancid butter made the entire dish inedible.</t>
+  </si>
+  <si>
+    <t>rancor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deep, bitter resentment</t>
+  </si>
+  <si>
+    <t>goodwill</t>
+  </si>
+  <si>
+    <t>The rancor between the two families lasted for generations.</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mutual understanding and harmony</t>
+  </si>
+  <si>
+    <t>The teacher had a good rapport with her students.</t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hasty</t>
+  </si>
+  <si>
+    <t>His rash decision led to unexpected consequences.</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>raucous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> loud, boisterous</t>
+  </si>
+  <si>
+    <t>The raucous party kept the neighbors awake all night.</t>
+  </si>
+  <si>
+    <t>raze</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to demolish</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>The old building was razed to make way for a new one.</t>
+  </si>
+  <si>
+    <t>rebuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to scold</t>
+  </si>
+  <si>
+    <t>The manager rebuked the employee for being late.</t>
+  </si>
+  <si>
+    <t>recalcitrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defiant, unapologetic</t>
+  </si>
+  <si>
+    <t>The recalcitrant student refused to follow the rules.</t>
+  </si>
+  <si>
+    <t>recapitulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to sum up, repeat</t>
+  </si>
+  <si>
+    <t>summarize</t>
+  </si>
+  <si>
+    <t>He recapitulated the main points of the lecture.</t>
+  </si>
+  <si>
+    <t>reciprocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to give in return</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>She reciprocated his kindness with a heartfelt thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solitary</t>
+  </si>
+  <si>
+    <t>secluded</t>
+  </si>
+  <si>
+    <t>sociable</t>
+  </si>
+  <si>
+    <t>The reclusive author rarely made public appearances.</t>
+  </si>
+  <si>
+    <t>reconcile</t>
+  </si>
+  <si>
+    <t>1.  to return to harmony 2.  to make consistent with existing ideas</t>
+  </si>
+  <si>
+    <t>harmonize</t>
+  </si>
+  <si>
+    <t>alienate</t>
+  </si>
+  <si>
+    <t>They worked to reconcile their differences and rebuild their friendship.</t>
+  </si>
+  <si>
+    <t>rectitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extreme morality</t>
+  </si>
+  <si>
+    <t>righteousness</t>
+  </si>
+  <si>
+    <t>His rectitude made him a respected figure in the community.</t>
+  </si>
+  <si>
+    <t>redoubtable</t>
+  </si>
+  <si>
+    <t>1.  formidable 2.  commanding respect</t>
+  </si>
+  <si>
+    <t>unimpressive</t>
+  </si>
+  <si>
+    <t>The redoubtable general led his troops to victory.</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to distort, change</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>straighten</t>
+  </si>
+  <si>
+    <t>The prism refracted the light into a spectrum of colors.</t>
+  </si>
+  <si>
+    <t>refurbish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to restore, clean up</t>
+  </si>
+  <si>
+    <t>renovate</t>
+  </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>They refurbished the old house to make it livable again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to prove wrong</t>
+  </si>
+  <si>
+    <t>The scientist refuted the theory with new evidence.</t>
+  </si>
+  <si>
+    <t>regurgitate</t>
+  </si>
+  <si>
+    <t>1.  to vomit 2.  to throw back exactly</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>The student regurgitated the information without understanding it.</t>
+  </si>
+  <si>
+    <t>relegate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to assign to the proper place</t>
+  </si>
+  <si>
+    <t>demote</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>The manager relegated the task to a junior employee.</t>
+  </si>
+  <si>
+    <t>relish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to enjoy</t>
+  </si>
+  <si>
+    <t>savor</t>
+  </si>
+  <si>
+    <t>She relished the opportunity to travel to new places.</t>
+  </si>
+  <si>
+    <t>remedial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intended to repair gaps in students' basic knowledge</t>
+  </si>
+  <si>
+    <t>corrective</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>The school offered remedial classes for struggling students.</t>
+  </si>
+  <si>
+    <t>remiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> negligent</t>
+  </si>
+  <si>
+    <t>It would be remiss of me not to thank you for your help.</t>
+  </si>
+  <si>
+    <t>1.  restore to original state 2.  to enlarge and make prettier (house)</t>
+  </si>
+  <si>
+    <t>demolish</t>
+  </si>
+  <si>
+    <t>They decided to renovate the old building instead of tearing it down.</t>
+  </si>
+  <si>
+    <t>renown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> honor, acclaim</t>
+  </si>
+  <si>
+    <t>fame</t>
+  </si>
+  <si>
+    <t>obscurity</t>
+  </si>
+  <si>
+    <t>The artist gained renown for his innovative work.</t>
+  </si>
+  <si>
+    <t>renunciation</t>
+  </si>
+  <si>
+    <t>rejection</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>His renunciation of the throne shocked the nation.</t>
+  </si>
+  <si>
+    <t>repentant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> penitent, sorry</t>
+  </si>
+  <si>
+    <t>The repentant criminal sought forgiveness for his crimes.</t>
+  </si>
+  <si>
+    <t>replete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> full, abundant</t>
+  </si>
+  <si>
+    <t>filled</t>
+  </si>
+  <si>
+    <t>The garden was replete with colorful flowers.</t>
+  </si>
+  <si>
+    <t>repose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to rest</t>
+  </si>
+  <si>
+    <t>relax</t>
+  </si>
+  <si>
+    <t>She found repose in the quiet countryside.</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>reprehensible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deserving rebuke</t>
+  </si>
+  <si>
+    <t>blameworthy</t>
+  </si>
+  <si>
+    <t>His reprehensible actions led to his dismissal.</t>
+  </si>
+  <si>
+    <t>reprieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a temporary delay of punishment</t>
+  </si>
+  <si>
+    <t>respite</t>
+  </si>
+  <si>
+    <t>The governor granted a reprieve to the condemned prisoner.</t>
+  </si>
+  <si>
+    <t>reproach</t>
+  </si>
+  <si>
+    <t>She reproached her son for his careless behavior.</t>
+  </si>
+  <si>
+    <t>reprobate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> evil,</t>
+  </si>
+  <si>
+    <t>The reprobate was shunned by the community.</t>
+  </si>
+  <si>
+    <t>reprove</t>
+  </si>
+  <si>
+    <t>commend</t>
+  </si>
+  <si>
+    <t>The teacher reproved the student for cheating.</t>
+  </si>
+  <si>
+    <t>repudiate</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>He repudiated the accusations made against him.</t>
+  </si>
+  <si>
+    <t>repulse</t>
+  </si>
+  <si>
+    <t>1.  to disgust 2.  to push back</t>
+  </si>
+  <si>
+    <t>attract</t>
+  </si>
+  <si>
+    <t>The graphic images repulsed the audience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of good reputation</t>
+  </si>
+  <si>
+    <t>respectable</t>
+  </si>
+  <si>
+    <t>disreputable</t>
+  </si>
+  <si>
+    <t>The reputable company was known for its quality products.</t>
+  </si>
+  <si>
+    <t>requisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a demand for goods, usually made by an authority</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>refusal</t>
+  </si>
+  <si>
+    <t>The army issued a requisition for additional supplies.</t>
+  </si>
+  <si>
+    <t>rescind</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to take back</t>
+  </si>
+  <si>
+    <t>enforce</t>
+  </si>
+  <si>
+    <t>The company decided to rescind the unpopular policy.</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>1.  reserves 2.  a body of water used for storing water</t>
+  </si>
+  <si>
+    <t>stockpile</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>The reservoir provided water for the entire city.</t>
+  </si>
+  <si>
+    <t>resilient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> able to recover from misfortune; able to withstand adversity</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>The resilient community rebuilt after the disaster.</t>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> determined</t>
+  </si>
+  <si>
+    <t>steadfast</t>
+  </si>
+  <si>
+    <t>indecisive</t>
+  </si>
+  <si>
+    <t>She remained resolute in her decision despite the criticism.</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>1.  to find a solution 2.  to firmly decide</t>
+  </si>
+  <si>
+    <t>waver</t>
+  </si>
+  <si>
+    <t>He resolved to finish the project by the deadline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a break</t>
+  </si>
+  <si>
+    <t>After hours of intense work, she took a brief respite to enjoy a cup of tea.</t>
+  </si>
+  <si>
+    <t>resplendent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shiny</t>
+  </si>
+  <si>
+    <t>The resplendent chandelier lit up the entire ballroom.</t>
+  </si>
+  <si>
+    <t>restitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> restoration to the rightful owner</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>The court ordered the thief to make restitution to the victim.</t>
+  </si>
+  <si>
+    <t>restive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stubborn, impatient</t>
+  </si>
+  <si>
+    <t>restless</t>
+  </si>
+  <si>
+    <t>The restive crowd grew increasingly impatient as the concert start time was delayed.</t>
+  </si>
+  <si>
+    <t>retract</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to withdraw</t>
+  </si>
+  <si>
+    <t>recant</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>The newspaper had to retract the false story and issue an apology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to enjoy intensely</t>
+  </si>
+  <si>
+    <t>celebrate</t>
+  </si>
+  <si>
+    <t>They reveled in their victory long into the night.</t>
+  </si>
+  <si>
+    <t>revere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to esteem</t>
+  </si>
+  <si>
+    <t>Many people revere Mahatma Gandhi for his principles of non-violence.</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>The government decided to revoke the controversial law.</t>
+  </si>
+  <si>
+    <t>rhapsodize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to engage in excessive enthusiasm</t>
+  </si>
+  <si>
+    <t>enthuse</t>
+  </si>
+  <si>
+    <t>She would often rhapsodize about her favorite author's works.</t>
+  </si>
+  <si>
+    <t>ribald</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crudely humorous</t>
+  </si>
+  <si>
+    <t>bawdy</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>The comedian's ribald jokes were not suitable for the young audience.</t>
+  </si>
+  <si>
+    <t>rife</t>
+  </si>
+  <si>
+    <t>The area was rife with rumors about the upcoming election.</t>
+  </si>
+  <si>
+    <t>ruminate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to contemplate</t>
+  </si>
+  <si>
+    <t>ponder</t>
+  </si>
+  <si>
+    <t>He sat quietly, ruminating over the day's events.</t>
+  </si>
+  <si>
+    <t>ruse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a trick</t>
+  </si>
+  <si>
+    <t>deception</t>
+  </si>
+  <si>
+    <t>The spy used a clever ruse to gain access to the secret documents.</t>
+  </si>
+  <si>
+    <t>The saccharine dialogue in the movie made it hard to take seriously.</t>
+  </si>
+  <si>
+    <t>sacrosanct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> holy</t>
+  </si>
+  <si>
+    <t>The ancient temple is considered sacrosanct by the local community.</t>
+  </si>
+  <si>
+    <t>sagacity</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>foolishness</t>
+  </si>
+  <si>
+    <t>His sagacity in business matters earned him great respect.</t>
+  </si>
+  <si>
+    <t>salient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> significant</t>
+  </si>
+  <si>
+    <t>prominent</t>
+  </si>
+  <si>
+    <t>insignificant</t>
+  </si>
+  <si>
+    <t>The salient points of the argument were highlighted in the summary.</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a greeting</t>
+  </si>
+  <si>
+    <t>greeting</t>
+  </si>
+  <si>
+    <t>farewell</t>
+  </si>
+  <si>
+    <t>He raised his hand in salutation as he passed by.</t>
+  </si>
+  <si>
+    <t>salve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a soothing balm</t>
+  </si>
+  <si>
+    <t>ointment</t>
+  </si>
+  <si>
+    <t>She applied a salve to the burn to ease the pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noun/Verb</t>
+  </si>
+  <si>
+    <t>sanctimonious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving a hypocritical appearance of piety</t>
+  </si>
+  <si>
+    <t>self-righteous</t>
+  </si>
+  <si>
+    <t>His sanctimonious attitude made it difficult for others to trust him.</t>
+  </si>
+  <si>
+    <t>sanguine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimistic</t>
+  </si>
+  <si>
+    <t>pessimistic</t>
+  </si>
+  <si>
+    <t>Despite the setbacks, she remained sanguine about the project's success.</t>
+  </si>
+  <si>
+    <t>satiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to satisfy excessively</t>
+  </si>
+  <si>
+    <t>starve</t>
+  </si>
+  <si>
+    <t>The lavish feast was enough to satiate even the hungriest guests.</t>
+  </si>
+  <si>
+    <t>scathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sharp, critical, hurtful</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>gentle</t>
+  </si>
+  <si>
+    <t>The critic's scathing review of the play led to its early closure.</t>
+  </si>
+  <si>
+    <t>scintillating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sparkling</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>Her scintillating performance captivated the audience.</t>
+  </si>
+  <si>
+    <t>scrupulous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> painstakingly careful</t>
+  </si>
+  <si>
+    <t>The scrupulous editor checked every detail of the manuscript.</t>
+  </si>
+  <si>
+    <t>scurrilous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vulgar</t>
+  </si>
+  <si>
+    <t>offensive</t>
+  </si>
+  <si>
+    <t>The scurrilous remarks made during the debate were widely condemned.</t>
+  </si>
+  <si>
+    <t>sedentary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> settled</t>
+  </si>
+  <si>
+    <t>A sedentary lifestyle can lead to various health problems.</t>
+  </si>
+  <si>
+    <t>semaphore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a visual signal</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>The sailors used semaphore flags to communicate between ships.</t>
+  </si>
+  <si>
+    <t>seminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> original, important</t>
+  </si>
+  <si>
+    <t>influential</t>
+  </si>
+  <si>
+    <t>His seminal work on genetics revolutionized the field.</t>
+  </si>
+  <si>
+    <t>sensual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> involving sensory gratification</t>
+  </si>
+  <si>
+    <t>sensory</t>
+  </si>
+  <si>
+    <t>The sensual aroma of the food made everyone's mouth water.</t>
+  </si>
+  <si>
+    <t>sensuous</t>
+  </si>
+  <si>
+    <t>The sensuous music filled the room, creating a relaxing atmosphere.</t>
+  </si>
+  <si>
+    <t>serendipity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luck, finding good things without looking for them</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>misfortune</t>
+  </si>
+  <si>
+    <t>Their meeting was a stroke of serendipity that changed both their lives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calm</t>
+  </si>
+  <si>
+    <t>The serene landscape was a perfect escape from the city's chaos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subservient</t>
+  </si>
+  <si>
+    <t>dominant</t>
+  </si>
+  <si>
+    <t>His servile attitude towards his boss was often criticized by his colleagues.</t>
+  </si>
+  <si>
+    <t>sinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lithe</t>
+  </si>
+  <si>
+    <t>winding</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>The river took a sinuous path through the valley.</t>
+  </si>
+  <si>
+    <t>sobriety</t>
+  </si>
+  <si>
+    <t>composure</t>
+  </si>
+  <si>
+    <t>intoxication</t>
+  </si>
+  <si>
+    <t>The judge commended the defendant for his sobriety during the trial.</t>
+  </si>
+  <si>
+    <t>solicitous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attentive</t>
+  </si>
+  <si>
+    <t>The nurse was solicitous in her care for the elderly patients.</t>
+  </si>
+  <si>
+    <t>solipsistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> believing that oneself is all that exists</t>
+  </si>
+  <si>
+    <t>self-centered</t>
+  </si>
+  <si>
+    <t>altruistic</t>
+  </si>
+  <si>
+    <t>His solipsistic worldview made it difficult for him to connect with others.</t>
+  </si>
+  <si>
+    <t>soluble</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> able to dissolve</t>
+  </si>
+  <si>
+    <t>dissolvable</t>
+  </si>
+  <si>
+    <t>insoluble</t>
+  </si>
+  <si>
+    <t>Sugar is soluble in water, but sand is not.</t>
+  </si>
+  <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>1.  a substance that can dissolve others 2.  able to pay debts</t>
+  </si>
+  <si>
+    <t>dissolver</t>
+  </si>
+  <si>
+    <t>insolvent</t>
+  </si>
+  <si>
+    <t>The company remained solvent despite the economic downturn.</t>
+  </si>
+  <si>
+    <t>somnolent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sleepy</t>
+  </si>
+  <si>
+    <t>drowsy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>The somnolent atmosphere of the library made it hard to stay awake.</t>
+  </si>
+  <si>
+    <t>sophomoric</t>
+  </si>
+  <si>
+    <t>juvenile</t>
+  </si>
+  <si>
+    <t>His sophomoric behavior was not appreciated in the professional setting.</t>
+  </si>
+  <si>
+    <t>sovereign</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having absolute authority in a certain realm</t>
+  </si>
+  <si>
+    <t>subordinate</t>
+  </si>
+  <si>
+    <t>The king was the sovereign ruler of the land.</t>
+  </si>
+  <si>
+    <t>speculative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not based in fact</t>
+  </si>
+  <si>
+    <t>factual</t>
+  </si>
+  <si>
+    <t>The speculative nature of the theory made it difficult to prove.</t>
+  </si>
+  <si>
+    <t>spurious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> false but designed to seem plausible</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>The spurious claims made by the salesman were quickly debunked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to remain inactive, not develop</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>Without new ideas, the project began to stagnate.</t>
+  </si>
+  <si>
+    <t>staid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> serious</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>The staid atmosphere of the meeting was broken by a sudden joke.</t>
+  </si>
+  <si>
+    <t>stingy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not generous</t>
+  </si>
+  <si>
+    <t>His stingy attitude towards tipping was well-known among the waitstaff.</t>
+  </si>
+  <si>
+    <t>stoic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unaffected by passion or feeling</t>
+  </si>
+  <si>
+    <t>Despite the bad news, she remained stoic and composed.</t>
+  </si>
+  <si>
+    <t>stolid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unemotional</t>
+  </si>
+  <si>
+    <t>His stolid demeanor made it hard to tell what he was thinking.</t>
+  </si>
+  <si>
+    <t>strenuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> requiring tremendous energy or stamina</t>
+  </si>
+  <si>
+    <t>arduous</t>
+  </si>
+  <si>
+    <t>The strenuous hike left everyone exhausted but satisfied.</t>
+  </si>
+  <si>
+    <t>strident</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> harsh, loud</t>
+  </si>
+  <si>
+    <t>shrill</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>The strident tones of the alarm woke everyone in the building.</t>
+  </si>
+  <si>
+    <t>stupefy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to astonish</t>
+  </si>
+  <si>
+    <t>amaze</t>
+  </si>
+  <si>
+    <t>The magician's tricks never failed to stupefy the audience.</t>
+  </si>
+  <si>
+    <t>subjugate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to subdue</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>The invaders sought to subjugate the native population.</t>
+  </si>
+  <si>
+    <t>sublime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lofty, grand</t>
+  </si>
+  <si>
+    <t>majestic</t>
+  </si>
+  <si>
+    <t>The view from the mountain top was truly sublime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> easily yielding to authority</t>
+  </si>
+  <si>
+    <t>The submissive employee never questioned his boss's decisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> precise</t>
+  </si>
+  <si>
+    <t>Her succinct explanation made the complex topic easy to understand.</t>
+  </si>
+  <si>
+    <t>superfluous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exceeding what is necessary</t>
+  </si>
+  <si>
+    <t>The report was filled with superfluous details that distracted from the main points.</t>
+  </si>
+  <si>
+    <t>surfeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an overabundant supply</t>
+  </si>
+  <si>
+    <t>There was a surfeit of food at the party, and much of it went to waste.</t>
+  </si>
+  <si>
+    <t>surmise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to infer with little evidence</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>From his expression, she surmised that he was not pleased with the news.</t>
+  </si>
+  <si>
+    <t>surreptitious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stealthy</t>
+  </si>
+  <si>
+    <t>The spy made a surreptitious entry into the building.</t>
+  </si>
+  <si>
+    <t>surrogate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> one acting in place of another</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>The surrogate mother carried the baby to term for the couple.</t>
+  </si>
+  <si>
+    <t>swarthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of dark color or complexion</t>
+  </si>
+  <si>
+    <t>dark-skinned</t>
+  </si>
+  <si>
+    <t>fair-skinned</t>
+  </si>
+  <si>
+    <t>His swarthy complexion suggested he spent a lot of time outdoors.</t>
+  </si>
+  <si>
+    <t>sycophant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> one who flatters for self-gain</t>
+  </si>
+  <si>
+    <t>flatterer</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>The sycophant was always eager to please the boss in hopes of a promotion.</t>
+  </si>
+  <si>
+    <t>tacit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expressed without words</t>
+  </si>
+  <si>
+    <t>There was a tacit agreement between them to never discuss the incident.</t>
+  </si>
+  <si>
+    <t>taciturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not inclined to talk</t>
+  </si>
+  <si>
+    <t>talkative</t>
+  </si>
+  <si>
+    <t>The taciturn man rarely spoke, even when directly addressed.</t>
+  </si>
+  <si>
+    <t>tangential</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> divergent</t>
+  </si>
+  <si>
+    <t>digressive</t>
+  </si>
+  <si>
+    <t>His tangential remarks during the meeting confused everyone.</t>
+  </si>
+  <si>
+    <t>tantamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equivalent in value or significance</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>unequal</t>
+  </si>
+  <si>
+    <t>His refusal to help was tantamount to betrayal.</t>
+  </si>
+  <si>
+    <t>tedious</t>
+  </si>
+  <si>
+    <t>monotonous</t>
+  </si>
+  <si>
+    <t>The tedious lecture seemed to go on forever.</t>
+  </si>
+  <si>
+    <t>temerity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recklessness</t>
+  </si>
+  <si>
+    <t>She had the temerity to challenge the professor's theory in front of the class.</t>
+  </si>
+  <si>
+    <t>temperance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moderation in action or thought</t>
+  </si>
+  <si>
+    <t>restraint</t>
+  </si>
+  <si>
+    <t>Temperance in diet and exercise is key to maintaining good health.</t>
+  </si>
+  <si>
+    <t>tenable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> able to be maintained</t>
+  </si>
+  <si>
+    <t>defensible</t>
+  </si>
+  <si>
+    <t>indefensible</t>
+  </si>
+  <si>
+    <t>His argument was tenable, but it lacked sufficient evidence.</t>
+  </si>
+  <si>
+    <t>tenuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having little substance or strength</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>The tenuous relationship between the two countries was on the verge of collapse.</t>
+  </si>
+  <si>
+    <t>terrestrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relating to the land</t>
+  </si>
+  <si>
+    <t>Terrestrial animals are adapted to life on land.</t>
+  </si>
+  <si>
+    <t>timorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timid</t>
+  </si>
+  <si>
+    <t>The timorous child hid behind her mother when strangers approached.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a long speech marked by harsh or biting language</t>
+  </si>
+  <si>
+    <t>rant</t>
+  </si>
+  <si>
+    <t>The manager launched into a tirade about the team's poor performance.</t>
+  </si>
+  <si>
+    <t>toady</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> one who flatters in the hope of gaining favor</t>
+  </si>
+  <si>
+    <t>The toady was always quick to agree with the boss, no matter what.</t>
+  </si>
+  <si>
+    <t>tome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a large book</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>pamphlet</t>
+  </si>
+  <si>
+    <t>The ancient tome contained centuries of knowledge.</t>
+  </si>
+  <si>
+    <t>torpid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lethargic</t>
+  </si>
+  <si>
+    <t>The torpid cat lay in the sun, barely moving all afternoon.</t>
+  </si>
+  <si>
+    <t>torrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> passionate</t>
+  </si>
+  <si>
+    <t>intense</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>Their torrid romance was the talk of the town.</t>
+  </si>
+  <si>
+    <t>tortuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winding</t>
+  </si>
+  <si>
+    <t>twisting</t>
+  </si>
+  <si>
+    <t>The tortuous path through the forest was difficult to navigate.</t>
+  </si>
+  <si>
+    <t>tractable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> easily controlled</t>
+  </si>
+  <si>
+    <t>The tractable horse was perfect for the beginner rider.</t>
+  </si>
+  <si>
+    <t>tranquil</t>
+  </si>
+  <si>
+    <t>The tranquil lake was a perfect spot for meditation.</t>
+  </si>
+  <si>
+    <t>transgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to violate, go over a limit</t>
+  </si>
+  <si>
+    <t>He knew he would transgress the rules if he stayed out past curfew.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> passing into and out of existence</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>The transient nature of fame is something many celebrities struggle with.</t>
+  </si>
+  <si>
+    <t>transmute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to change in form</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>The alchemist sought to transmute base metals into gold.</t>
+  </si>
+  <si>
+    <t>travesty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a grossly inferior imitation</t>
+  </si>
+  <si>
+    <t>mockery</t>
+  </si>
+  <si>
+    <t>tribute</t>
+  </si>
+  <si>
+    <t>The trial was a travesty of justice, with the verdict clearly influenced by bias.</t>
+  </si>
+  <si>
+    <t>tremulous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fearful</t>
+  </si>
+  <si>
+    <t>trembling</t>
+  </si>
+  <si>
+    <t>Her tremulous voice betrayed her nervousness during the speech.</t>
+  </si>
+  <si>
+    <t>trenchant</t>
+  </si>
+  <si>
+    <t>His trenchant critique of the policy left no room for doubt about its flaws.</t>
+  </si>
+  <si>
+    <t>trepidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fear</t>
+  </si>
+  <si>
+    <t>apprehension</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>She felt a sense of trepidation as she approached the dark, abandoned house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> overused</t>
+  </si>
+  <si>
+    <t>The trite phrase "think outside the box" has lost its impact through overuse.</t>
+  </si>
+  <si>
+    <t>truculent</t>
+  </si>
+  <si>
+    <t>1.  ready to fight 2.  cruel</t>
+  </si>
+  <si>
+    <t>The truculent dog barked fiercely at anyone who approached the house.</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>abbreviate</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>The editor decided to truncate the article to fit the available space.</t>
+  </si>
+  <si>
+    <t>turgid</t>
+  </si>
+  <si>
+    <t>1.  swollen 2.  excessively embellished in style or language</t>
+  </si>
+  <si>
+    <t>bloated</t>
+  </si>
+  <si>
+    <t>The turgid prose made the novel difficult to read.</t>
+  </si>
+  <si>
+    <t>turpitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral corruption</t>
+  </si>
+  <si>
+    <t>The politician's turpitude was exposed by the media, leading to his resignation.</t>
+  </si>
+  <si>
+    <t>ubiquitous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> widespread</t>
+  </si>
+  <si>
+    <t>omnipresent</t>
+  </si>
+  <si>
+    <t>Smartphones have become ubiquitous in modern society.</t>
+  </si>
+  <si>
+    <t>umbrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> offense</t>
+  </si>
+  <si>
+    <t>resentment</t>
+  </si>
+  <si>
+    <t>pleasure</t>
+  </si>
+  <si>
+    <t>She took umbrage at his rude comment and left the room.</t>
+  </si>
+  <si>
+    <t>uncanny</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of supernatural character</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>The uncanny resemblance between the twins was striking.</t>
+  </si>
+  <si>
+    <t>unctuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smooth or greasy</t>
+  </si>
+  <si>
+    <t>oily</t>
+  </si>
+  <si>
+    <t>The unctuous salesman tried to charm his way into a deal.</t>
+  </si>
+  <si>
+    <t>undulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to move in waves</t>
+  </si>
+  <si>
+    <t>ripple</t>
+  </si>
+  <si>
+    <t>The fields of wheat undulated in the breeze.</t>
+  </si>
+  <si>
+    <t>upbraid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to criticize or scold severely</t>
+  </si>
+  <si>
+    <t>The teacher upbraided the student for not completing the assignment.</t>
+  </si>
+  <si>
+    <t>usurp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to seize by force</t>
+  </si>
+  <si>
+    <t>The general attempted to usurp power from the king.</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relating to usefulness</t>
+  </si>
+  <si>
+    <t>impractical</t>
+  </si>
+  <si>
+    <t>The utilitarian design of the building focused on functionality over aesthetics.</t>
+  </si>
+  <si>
+    <t>utopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an imaginary place of perfection</t>
+  </si>
+  <si>
+    <t>paradise</t>
+  </si>
+  <si>
+    <t>dystopia</t>
+  </si>
+  <si>
+    <t>The novel depicted a utopia where everyone lived in harmony.</t>
+  </si>
+  <si>
+    <t>vacillate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to fluctuate, hesitate</t>
+  </si>
+  <si>
+    <t>She vacillated between ordering the pasta and the steak.</t>
+  </si>
+  <si>
+    <t>vacuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lack of content or ideas</t>
+  </si>
+  <si>
+    <t>meaningful</t>
+  </si>
+  <si>
+    <t>His vacuous expression suggested he wasn't paying attention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to confirm</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>invalidate</t>
+  </si>
+  <si>
+    <t>The experiment's results were validated by multiple independent studies.</t>
+  </si>
+  <si>
+    <t>vapid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dull</t>
+  </si>
+  <si>
+    <t>The vapid conversation at the party made her wish she had stayed home.</t>
+  </si>
+  <si>
+    <t>variegated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diversified</t>
+  </si>
+  <si>
+    <t>The variegated leaves of the plant added a splash of color to the garden.</t>
+  </si>
+  <si>
+    <t>vehemently</t>
+  </si>
+  <si>
+    <t>(adv.) marked by intense force or emotion</t>
+  </si>
+  <si>
+    <t>passionately</t>
+  </si>
+  <si>
+    <t>calmly</t>
+  </si>
+  <si>
+    <t>She vehemently denied the accusations against her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adverb</t>
+  </si>
+  <si>
+    <t>veneer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a façade</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>The veneer of politeness quickly faded as the argument heated up.</t>
+  </si>
+  <si>
+    <t>venerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deserving of respect because of age or achievement</t>
+  </si>
+  <si>
+    <t>respected</t>
+  </si>
+  <si>
+    <t>The venerable professor had been teaching at the university for over 50 years.</t>
+  </si>
+  <si>
+    <t>venerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to regard with respect</t>
+  </si>
+  <si>
+    <t>Many cultures venerate their ancestors through rituals and ceremonies.</t>
+  </si>
+  <si>
+    <t>veracity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accuracy</t>
+  </si>
+  <si>
+    <t>truthfulness</t>
+  </si>
+  <si>
+    <t>falsity</t>
+  </si>
+  <si>
+    <t>The veracity of his statement was confirmed by multiple witnesses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wordy</t>
+  </si>
+  <si>
+    <t>long-winded</t>
+  </si>
+  <si>
+    <t>The verbose report could have been summarized in just a few pages.</t>
+  </si>
+  <si>
+    <t>verdant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> green</t>
+  </si>
+  <si>
+    <t>lush</t>
+  </si>
+  <si>
+    <t>The verdant hills were a refreshing sight after the long journey.</t>
+  </si>
+  <si>
+    <t>vestige</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a trace of something lost or vanished</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>The old ruins were the only vestige of the ancient civilization.</t>
+  </si>
+  <si>
+    <t>vex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to confuse or annoy</t>
+  </si>
+  <si>
+    <t>His constant questions began to vex her after a while.</t>
+  </si>
+  <si>
+    <t>vicarious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> experiencing through another</t>
+  </si>
+  <si>
+    <t>She lived vicariously through her daughter's adventures.</t>
+  </si>
+  <si>
+    <t>vicissitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> event that occurs by chance</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+  </si>
+  <si>
+    <t>stability</t>
+  </si>
+  <si>
+    <t>The vicissitudes of life taught him to be resilient.</t>
+  </si>
+  <si>
+    <t>vigilant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alert</t>
+  </si>
+  <si>
+    <t>watchful</t>
+  </si>
+  <si>
+    <t>The vigilant guard noticed the intruder immediately.</t>
+  </si>
+  <si>
+    <t>vilify</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to defame</t>
+  </si>
+  <si>
+    <t>The politician tried to vilify his opponent during the debate.</t>
+  </si>
+  <si>
+    <t>vindicate</t>
+  </si>
+  <si>
+    <t>1.  to avenge 2.  to free</t>
+  </si>
+  <si>
+    <t>accuse</t>
+  </si>
+  <si>
+    <t>The new evidence helped to vindicate the wrongly accused man.</t>
+  </si>
+  <si>
+    <t>vindictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vengeful</t>
+  </si>
+  <si>
+    <t>spiteful</t>
+  </si>
+  <si>
+    <t>His vindictive nature made it hard for him to let go of grudges.</t>
+  </si>
+  <si>
+    <t>virtuoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> one who excels in an art</t>
+  </si>
+  <si>
+    <t>maestro</t>
+  </si>
+  <si>
+    <t>The virtuoso's performance left the audience in awe.</t>
+  </si>
+  <si>
+    <t>viscous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> syrupy</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>The viscous liquid poured slowly out of the bottle.</t>
+  </si>
+  <si>
+    <t>vitriolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having a caustic quality</t>
+  </si>
+  <si>
+    <t>Her vitriolic remarks hurt everyone in the room.</t>
+  </si>
+  <si>
+    <t>vituperate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to scold angrily</t>
+  </si>
+  <si>
+    <t>The coach vituperated the team for their poor performance.</t>
+  </si>
+  <si>
+    <t>spirited</t>
+  </si>
+  <si>
+    <t>Her vivacious personality made her the life of the party.</t>
+  </si>
+  <si>
+    <t>vocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profession</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>Teaching was more than a job; it was her true vocation.</t>
+  </si>
+  <si>
+    <t>vociferous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> loud</t>
+  </si>
+  <si>
+    <t>clamorous</t>
+  </si>
+  <si>
+    <t>The vociferous crowd cheered as the team scored the winning goal.</t>
+  </si>
+  <si>
+    <t>wallow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to remain helpless</t>
+  </si>
+  <si>
+    <t>flounder</t>
+  </si>
+  <si>
+    <t>thrive</t>
+  </si>
+  <si>
+    <t>After the breakup, he wallowed in self-pity for weeks.</t>
+  </si>
+  <si>
+    <t>wane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to decrease in size</t>
+  </si>
+  <si>
+    <t>The moon began to wane after the full moon night.</t>
+  </si>
+  <si>
+    <t>wanton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> undisciplined</t>
+  </si>
+  <si>
+    <t>disciplined</t>
+  </si>
+  <si>
+    <t>His wanton behavior at the party embarrassed his friends.</t>
+  </si>
+  <si>
+    <t>whimsical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> full of whims</t>
+  </si>
+  <si>
+    <t>fanciful</t>
+  </si>
+  <si>
+    <t>The whimsical decorations gave the room a magical feel.</t>
+  </si>
+  <si>
+    <t>wily</t>
+  </si>
+  <si>
+    <t>The wily fox managed to escape the hunters once again.</t>
+  </si>
+  <si>
+    <t>winsome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> charming</t>
+  </si>
+  <si>
+    <t>appealing</t>
+  </si>
+  <si>
+    <t>unattractive</t>
+  </si>
+  <si>
+    <t>Her winsome smile won over everyone she met.</t>
+  </si>
+  <si>
+    <t>wistful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> full of yearning</t>
+  </si>
+  <si>
+    <t>longing</t>
+  </si>
+  <si>
+    <t>He gave a wistful glance at the old photograph.</t>
+  </si>
+  <si>
+    <t>wizened</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dry</t>
+  </si>
+  <si>
+    <t>shriveled</t>
+  </si>
+  <si>
+    <t>The wizened old man sat quietly on the porch.</t>
+  </si>
+  <si>
+    <t>wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vengeful anger</t>
+  </si>
+  <si>
+    <t>fury</t>
+  </si>
+  <si>
+    <t>The king's wrath was feared by all his subjects.</t>
+  </si>
+  <si>
+    <t>yoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to join</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
+  <si>
+    <t>The two oxen were yoked together to pull the heavy cart.</t>
+  </si>
+  <si>
+    <t>zealous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> filled with eagerness in pursuit of something</t>
+  </si>
+  <si>
+    <t>She was zealous in her efforts to protect the environment.</t>
+  </si>
+  <si>
+    <t>The artist's career reached its zenith with his latest masterpiece.</t>
+  </si>
+  <si>
+    <t>zephyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a gentle breeze</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>gale</t>
+  </si>
+  <si>
+    <t>A zephyr rustled the leaves as they walked through the forest.</t>
   </si>
 </sst>
 </file>
@@ -9860,10 +12917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F727"/>
+  <dimension ref="A1:F992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9871,9 +12928,9 @@
     <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -24414,6 +27471,5306 @@
         <v>1450</v>
       </c>
     </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A728" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>3162</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A729" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A730" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A731" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A732" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A733" s="2" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E733" s="2" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F733" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A734" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E734" s="2" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F734" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A735" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A736" s="2" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E736" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F736" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A737" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F737" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A738" s="2" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A739" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F739" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A740" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E740" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F740" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A741" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E741" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A742" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E742" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F742" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A743" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>3225</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A744" s="2" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F744" s="2" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A745" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F745" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A746" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A747" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A748" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F748" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A749" s="2" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F749" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A750" s="2" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A751" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F751" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A752" s="2" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A753" s="2" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A754" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>3269</v>
+      </c>
+      <c r="F754" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A755" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A756" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A757" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F757" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A758" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A759" s="2" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F759" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A760" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="F760" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A761" s="2" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A762" s="2" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A763" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F763" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A764" s="2" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A765" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A766" s="2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F766" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A767" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A768" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A769" s="2" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F769" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A770" s="2" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A771" s="2" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A772" s="2" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A773" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F773" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A774" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F774" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A775" s="2" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F775" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A776" s="2" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E776" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A777" s="2" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E777" s="2" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A778" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E778" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="F778" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A779" s="2" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E779" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F779" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A780" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E780" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F780" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A781" s="2" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E781" s="2" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F781" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A782" s="2" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E782" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F782" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A783" s="2" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E783" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F783" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A784" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E784" s="2" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F784" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A785" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E785" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F785" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A786" s="2" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E786" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="F786" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A787" s="2" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E787" s="2" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F787" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A788" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F788" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A789" s="2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E789" s="2" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F789" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A790" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E790" s="2" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F790" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A791" s="2" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E791" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A792" s="2" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E792" s="2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F792" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A793" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E793" s="2" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F793" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A794" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E794" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F794" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A795" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E795" s="2" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F795" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A796" s="2" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E796" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F796" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A797" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E797" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F797" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A798" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E798" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="F798" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A799" s="2" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E799" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F799" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A800" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E800" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F800" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A801" s="2" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E801" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F801" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A802" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F802" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A803" s="2" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A804" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>3469</v>
+      </c>
+      <c r="F804" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A805" s="2" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F805" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A806" s="2" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A807" s="2" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F807" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A808" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A809" s="2" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A810" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A811" s="2" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A812" s="2" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F812" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A813" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A814" s="2" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F814" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A815" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A816" s="2" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A817" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A818" s="2" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A819" s="2" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A820" s="2" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E820" s="2" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F820" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A821" s="2" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E821" s="2" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F821" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A822" s="2" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E822" s="2" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F822" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A823" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E823" s="2" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F823" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A824" s="2" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E824" s="2" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F824" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A825" s="2" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E825" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="F825" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A826" s="2" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E826" s="2" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A827" s="2" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E827" s="2" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F827" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A828" s="2" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C828" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E828" s="2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F828" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A829" s="2" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C829" s="2" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E829" s="2" t="s">
+        <v>3566</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A830" s="2" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="E830" s="2" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F830" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A831" s="2" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E831" s="2" t="s">
+        <v>3575</v>
+      </c>
+      <c r="F831" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A832" s="2" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C832" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E832" s="2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F832" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A833" s="2" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E833" s="2" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F833" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A834" s="2" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E834" s="2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="F834" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A835" s="2" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E835" s="2" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F835" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A836" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E836" s="2" t="s">
+        <v>3595</v>
+      </c>
+      <c r="F836" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A837" s="2" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C837" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E837" s="2" t="s">
+        <v>3597</v>
+      </c>
+      <c r="F837" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A838" s="2" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E838" s="2" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F838" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A839" s="2" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E839" s="2" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F839" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A840" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>3605</v>
+      </c>
+      <c r="E840" s="2" t="s">
+        <v>3606</v>
+      </c>
+      <c r="F840" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A841" s="2" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C841" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E841" s="2" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F841" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A842" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F842" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A843" s="2" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C843" s="2" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E843" s="2" t="s">
+        <v>3619</v>
+      </c>
+      <c r="F843" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A844" s="2" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E844" s="2" t="s">
+        <v>3623</v>
+      </c>
+      <c r="F844" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A845" s="2" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E845" s="2" t="s">
+        <v>3628</v>
+      </c>
+      <c r="F845" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A846" s="2" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>3632</v>
+      </c>
+      <c r="F846" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A847" s="2" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>3637</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A848" s="2" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E848" s="2" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F848" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A849" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E849" s="2" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F849" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A850" s="2" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C850" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E850" s="2" t="s">
+        <v>3646</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A851" s="2" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C851" s="2" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E851" s="2" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A852" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>3653</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E852" s="2" t="s">
+        <v>3654</v>
+      </c>
+      <c r="F852" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A853" s="2" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>3658</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>3659</v>
+      </c>
+      <c r="F853" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A854" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C854" s="2" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A855" s="2" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C855" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E855" s="2" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F855" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A856" s="2" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C856" s="2" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>3667</v>
+      </c>
+      <c r="F856" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A857" s="2" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F857" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A858" s="2" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>3675</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="F858" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A859" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>3678</v>
+      </c>
+      <c r="F859" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A860" s="2" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F860" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A861" s="2" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>3686</v>
+      </c>
+      <c r="F861" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A862" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F862" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A863" s="2" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>3690</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A864" s="2" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="F864" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A865" s="2" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>3698</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>3699</v>
+      </c>
+      <c r="F865" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A866" s="2" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>3704</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A867" s="2" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>3708</v>
+      </c>
+      <c r="F867" s="2" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A868" s="2" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C868" s="2" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A869" s="2" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>3717</v>
+      </c>
+      <c r="F869" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A870" s="2" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A871" s="2" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F871" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A872" s="2" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>3730</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A873" s="2" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C873" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>3733</v>
+      </c>
+      <c r="F873" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A874" s="2" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F874" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A875" s="2" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>3740</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A876" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>3744</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A877" s="2" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>3698</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>3748</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A878" s="2" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F878" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A879" s="2" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>3754</v>
+      </c>
+      <c r="F879" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A880" s="2" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F880" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A881" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F881" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A882" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F882" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A883" s="2" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>3769</v>
+      </c>
+      <c r="F883" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A884" s="2" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>3773</v>
+      </c>
+      <c r="F884" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A885" s="2" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>3776</v>
+      </c>
+      <c r="F885" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A886" s="2" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>3781</v>
+      </c>
+      <c r="F886" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A887" s="2" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C887" s="2" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>3786</v>
+      </c>
+      <c r="F887" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A888" s="2" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>3791</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A889" s="2" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>3796</v>
+      </c>
+      <c r="F889" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A890" s="2" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A891" s="2" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F891" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A892" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="F892" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A893" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="F893" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A894" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F894" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A895" s="2" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F895" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A896" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E896" s="2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F896" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A897" s="2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C897" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E897" s="2" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F897" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A898" s="2" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C898" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E898" s="2" t="s">
+        <v>3827</v>
+      </c>
+      <c r="F898" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A899" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="C899" s="2" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E899" s="2" t="s">
+        <v>3831</v>
+      </c>
+      <c r="F899" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A900" s="2" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C900" s="2" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D900" s="2" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E900" s="2" t="s">
+        <v>3836</v>
+      </c>
+      <c r="F900" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A901" s="2" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C901" s="2" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D901" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E901" s="2" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F901" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A902" s="2" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C902" s="2" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D902" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E902" s="2" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F902" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A903" s="2" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C903" s="2" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E903" s="2" t="s">
+        <v>3848</v>
+      </c>
+      <c r="F903" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A904" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C904" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D904" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E904" s="2" t="s">
+        <v>3850</v>
+      </c>
+      <c r="F904" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A905" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C905" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F905" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A906" s="2" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C906" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>3855</v>
+      </c>
+      <c r="F906" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A907" s="2" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C907" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E907" s="2" t="s">
+        <v>3858</v>
+      </c>
+      <c r="F907" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A908" s="2" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C908" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>3861</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A909" s="2" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A910" s="2" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C910" s="2" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A911" s="2" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C911" s="2" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>3873</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>3874</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A912" s="2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C912" s="2" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A913" s="2" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C913" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>3882</v>
+      </c>
+      <c r="F913" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A914" s="2" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C914" s="2" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>3885</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>3886</v>
+      </c>
+      <c r="F914" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A915" s="2" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C915" s="2" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D915" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F915" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A916" s="2" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C916" s="2" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D916" s="2" t="s">
+        <v>3894</v>
+      </c>
+      <c r="E916" s="2" t="s">
+        <v>3895</v>
+      </c>
+      <c r="F916" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A917" s="2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C917" s="2" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D917" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E917" s="2" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F917" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A918" s="2" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C918" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="F918" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A919" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C919" s="2" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F919" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A920" s="2" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C920" s="2" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D920" s="2" t="s">
+        <v>3909</v>
+      </c>
+      <c r="E920" s="2" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F920" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A921" s="2" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C921" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E921" s="2" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F921" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A922" s="2" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>3916</v>
+      </c>
+      <c r="C922" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D922" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E922" s="2" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F922" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A923" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="C923" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E923" s="2" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F923" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A924" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C924" s="2" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F924" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A925" s="2" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C925" s="2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E925" s="2" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F925" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A926" s="2" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C926" s="2" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D926" s="2" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E926" s="2" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F926" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A927" s="2" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C927" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D927" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E927" s="2" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F927" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A928" s="2" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C928" s="2" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D928" s="2" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E928" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="F928" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A929" s="2" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C929" s="2" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D929" s="2" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E929" s="2" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F929" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A930" s="2" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C930" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E930" s="2" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F930" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A931" s="2" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C931" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A932" s="2" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C932" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E932" s="2" t="s">
+        <v>3951</v>
+      </c>
+      <c r="F932" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A933" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C933" s="2" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E933" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F933" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A934" s="2" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C934" s="2" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>3958</v>
+      </c>
+      <c r="E934" s="2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="F934" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A935" s="2" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C935" s="2" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F935" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A936" s="2" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C936" s="2" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F936" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A937" s="2" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C937" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E937" s="2" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F937" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A938" s="2" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C938" s="2" t="s">
+        <v>3973</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E938" s="2" t="s">
+        <v>3975</v>
+      </c>
+      <c r="F938" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A939" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C939" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E939" s="2" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F939" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A940" s="2" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C940" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F940" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A941" s="2" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C941" s="2" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>3983</v>
+      </c>
+      <c r="E941" s="2" t="s">
+        <v>3984</v>
+      </c>
+      <c r="F941" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A942" s="2" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C942" s="2" t="s">
+        <v>3987</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E942" s="2" t="s">
+        <v>3988</v>
+      </c>
+      <c r="F942" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A943" s="2" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C943" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E943" s="2" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F943" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A944" s="2" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C944" s="2" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E944" s="2" t="s">
+        <v>3995</v>
+      </c>
+      <c r="F944" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A945" s="2" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C945" s="2" t="s">
+        <v>3998</v>
+      </c>
+      <c r="D945" s="2" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E945" s="2" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F945" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A946" s="2" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C946" s="2" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D946" s="2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E946" s="2" t="s">
+        <v>4004</v>
+      </c>
+      <c r="F946" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A947" s="2" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C947" s="2" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E947" s="2" t="s">
+        <v>4008</v>
+      </c>
+      <c r="F947" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A948" s="2" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C948" s="2" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E948" s="2" t="s">
+        <v>4012</v>
+      </c>
+      <c r="F948" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A949" s="2" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C949" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E949" s="2" t="s">
+        <v>4015</v>
+      </c>
+      <c r="F949" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A950" s="2" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C950" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D950" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E950" s="2" t="s">
+        <v>4018</v>
+      </c>
+      <c r="F950" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A951" s="2" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C951" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D951" s="2" t="s">
+        <v>4021</v>
+      </c>
+      <c r="E951" s="2" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F951" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A952" s="2" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C952" s="2" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>4026</v>
+      </c>
+      <c r="E952" s="2" t="s">
+        <v>4027</v>
+      </c>
+      <c r="F952" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A953" s="2" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C953" s="2" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D953" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E953" s="2" t="s">
+        <v>4030</v>
+      </c>
+      <c r="F953" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A954" s="2" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C954" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>4033</v>
+      </c>
+      <c r="E954" s="2" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F954" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A955" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C955" s="2" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D955" s="2" t="s">
+        <v>4037</v>
+      </c>
+      <c r="E955" s="2" t="s">
+        <v>4038</v>
+      </c>
+      <c r="F955" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A956" s="2" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C956" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D956" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E956" s="2" t="s">
+        <v>4041</v>
+      </c>
+      <c r="F956" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A957" s="2" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C957" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D957" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E957" s="2" t="s">
+        <v>4044</v>
+      </c>
+      <c r="F957" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A958" s="2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C958" s="2" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>4049</v>
+      </c>
+      <c r="F958" s="2" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A959" s="2" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C959" s="2" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E959" s="2" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F959" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A960" s="2" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C960" s="2" t="s">
+        <v>4058</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E960" s="2" t="s">
+        <v>4059</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A961" s="2" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C961" s="2" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E961" s="2" t="s">
+        <v>4062</v>
+      </c>
+      <c r="F961" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A962" s="2" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C962" s="2" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E962" s="2" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F962" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A963" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C963" s="2" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E963" s="2" t="s">
+        <v>4070</v>
+      </c>
+      <c r="F963" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A964" s="2" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C964" s="2" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F964" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A965" s="2" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C965" s="2" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E965" s="2" t="s">
+        <v>4078</v>
+      </c>
+      <c r="F965" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A966" s="2" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C966" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E966" s="2" t="s">
+        <v>4081</v>
+      </c>
+      <c r="F966" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A967" s="2" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C967" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D967" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E967" s="2" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F967" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A968" s="2" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C968" s="2" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>4088</v>
+      </c>
+      <c r="E968" s="2" t="s">
+        <v>4089</v>
+      </c>
+      <c r="F968" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A969" s="2" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C969" s="2" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D969" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E969" s="2" t="s">
+        <v>4093</v>
+      </c>
+      <c r="F969" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A970" s="2" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C970" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E970" s="2" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F970" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A971" s="2" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C971" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E971" s="2" t="s">
+        <v>4100</v>
+      </c>
+      <c r="F971" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A972" s="2" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C972" s="2" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D972" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E972" s="2" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F972" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A973" s="2" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C973" s="2" t="s">
+        <v>4107</v>
+      </c>
+      <c r="D973" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E973" s="2" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F973" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A974" s="2" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C974" s="2" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>4112</v>
+      </c>
+      <c r="E974" s="2" t="s">
+        <v>4113</v>
+      </c>
+      <c r="F974" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A975" s="2" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C975" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D975" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E975" s="2" t="s">
+        <v>4116</v>
+      </c>
+      <c r="F975" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A976" s="2" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C976" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D976" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E976" s="2" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F976" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A977" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C977" s="2" t="s">
+        <v>4120</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E977" s="2" t="s">
+        <v>4121</v>
+      </c>
+      <c r="F977" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A978" s="2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C978" s="2" t="s">
+        <v>4124</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>4125</v>
+      </c>
+      <c r="E978" s="2" t="s">
+        <v>4126</v>
+      </c>
+      <c r="F978" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A979" s="2" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C979" s="2" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D979" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E979" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="F979" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A980" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C980" s="2" t="s">
+        <v>4133</v>
+      </c>
+      <c r="D980" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="E980" s="2" t="s">
+        <v>4135</v>
+      </c>
+      <c r="F980" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A981" s="2" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C981" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>4138</v>
+      </c>
+      <c r="F981" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A982" s="2" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C982" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>4141</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>4142</v>
+      </c>
+      <c r="F982" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A983" s="2" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C983" s="2" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E983" s="2" t="s">
+        <v>4146</v>
+      </c>
+      <c r="F983" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A984" s="2" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C984" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E984" s="2" t="s">
+        <v>4148</v>
+      </c>
+      <c r="F984" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A985" s="2" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C985" s="2" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D985" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="E985" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="F985" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A986" s="2" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C986" s="2" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>4157</v>
+      </c>
+      <c r="F986" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A987" s="2" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C987" s="2" t="s">
+        <v>4160</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>4161</v>
+      </c>
+      <c r="F987" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A988" s="2" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C988" s="2" t="s">
+        <v>4164</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E988" s="2" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F988" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A989" s="2" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>4167</v>
+      </c>
+      <c r="C989" s="2" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D989" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F989" s="2" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A990" s="2" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C990" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E990" s="2" t="s">
+        <v>4172</v>
+      </c>
+      <c r="F990" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A991" s="2" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C991" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D991" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E991" s="2" t="s">
+        <v>4173</v>
+      </c>
+      <c r="F991" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A992" s="2" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C992" s="2" t="s">
+        <v>4176</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>4177</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>4178</v>
+      </c>
+      <c r="F992" s="2" t="s">
+        <v>3197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
